--- a/FRONDOSO, AILEEN.xlsx
+++ b/FRONDOSO, AILEEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,30 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/11,12/2023</t>
+  </si>
+  <si>
+    <t>8/25,26/2023</t>
+  </si>
+  <si>
+    <t>9/7-8/2023</t>
+  </si>
+  <si>
+    <t>9/14,15/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>9/21,22,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -2947,9 +2971,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="B81:K81"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,7 +3134,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3120,7 +3144,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4562,11 +4586,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13"/>
+      <c r="G81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
@@ -4577,13 +4605,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4595,13 +4625,15 @@
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5509,10 +5541,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A13" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,7 +5705,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.75</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5683,7 +5715,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6003,10 +6035,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -6016,11 +6054,15 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6029,16 +6071,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>1</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="49">
+        <v>45157</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -6048,11 +6098,17 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -6061,16 +6117,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="49">
+        <v>45170</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>2</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13" t="str">
@@ -6080,11 +6144,15 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6093,16 +6161,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>2</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>4</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -6112,7 +6188,9 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
